--- a/inst/app/www/Titelblatt.xlsx
+++ b/inst/app/www/Titelblatt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszmea\GitLab\statent-tool\inst\app\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszham\GitLab\statent-tool\inst\app\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D650B7-34D6-4033-BF8F-0196147E9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803308F4-DF9B-457F-8640-FC59C84A8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Napfgasse 6, 8022 Zürich</t>
   </si>
@@ -71,14 +71,49 @@
     <t>Platzhalter: Titel der Tabelle</t>
   </si>
   <si>
-    <t>todo!!!!</t>
+    <t>Die Statistik der Unternehmensstruktur (STATENT) des Bundesamtes für Statistik (BFS) liefert zentrale Informationen zur Struktur der Schweizer Wirtschaft. Die STATENT ersetzt die Betriebszählung (BZ), die
+2008 zum letzten Mal durchgeführt wurde. Die STATENT erfasst alle Unternehmen, die
+verpflichtet sind, für ihre Angestellten sowie für sich selber (Selbstständigerwerbende) bei
+einem Mindesteinkommen von jährlich Fr. 2300.- AHV-Beiträge zu bezahlen. Die
+Auswertungseinheiten sind die Arbeitsstätte und das Unternehmen (institutionelle
+Einheit).
+Die STATENT basiert im Wesentlichen auf Daten des Registers der Alters- und Hinterlassenenversicherung AHV sowie auf Informationen aus dem Unternehmens- und Betriebsregister des BFS. Die Zahlen werden mit Daten aus laufenden Erhebungen bei Unternehmen ergänzt.
+Die Daten erscheinen einmal jährlich, jeweils knapp zwei Jahre nach dem Stichtag per Jahresende.</t>
+  </si>
+  <si>
+    <t>Vollzeitäquivalente, Summen</t>
+  </si>
+  <si>
+    <t>Die Vollzeitäquivalente werden jeweils auf ganze Zahlen gerundet ausgewiesen. Dies kann zu kleineren Abweichungen zwischen den gerundeten Summen und den Summen der einzelnen gerundeten Detailwerten führen. Werte unter vier Vollzeitäquivalenten werden aggregiert (z.B. 1-3) angegeben.</t>
+  </si>
+  <si>
+    <t>Die Statistik der Unternehmensstruktur (STATENT)</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Ein Strich (–) anstelle einer Zahl bedeutet, dass nichts vorkommt (Fall, kein Betrag usw.)</t>
+  </si>
+  <si>
+    <t>( )</t>
+  </si>
+  <si>
+    <t>In runde Klammern gesetzte Zahlen beruhen bei Stichprobenerhebungen auf einer kleinen Beobachtungszahl (im Fall von Vollzeitäuqivalenten: weniger als vier)</t>
+  </si>
+  <si>
+    <t>Betriebe/Arbeitsstätten</t>
+  </si>
+  <si>
+    <t>Eine Arbeitsstätte oder ein Betrieb entspricht einem Unternehmen (Einzelunternehmen) oder einem Teil eines Unternehmens (Werkstatt, Fabrik usw.), das sich an einem bestimmten Ort befindet. Dieser Ort ist topografisch bestimmbar. Dort führen eine oder mehrere Personen Tätigkeiten für dasselbe Unternehmen aus.  
+Es kommt also vor, dass grosse internationale Verbände, Organisationen und Gesellschaften mehrere Arbeitsstätten mit Standort in der Stadt Zürich haben (z.B. verschiedene Bereiche einer internationalen Grossbank).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +187,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +218,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -207,6 +248,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,12 +506,12 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -484,27 +528,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
@@ -512,12 +556,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,20 +577,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -554,75 +598,97 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:2" ht="156" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    </row>
+    <row r="3" spans="1:2" ht="84" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.71" right="0.71" top="0.98" bottom="0.59" header="0.4" footer="0.3"/>
